--- a/design_document/クラス詳細/ポーカーアプリクラス設計.xlsx
+++ b/design_document/クラス詳細/ポーカーアプリクラス設計.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="クラス洗い出し" sheetId="1" r:id="rId1"/>
+    <sheet name="クラス図" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>作成するべきクラス</t>
     <rPh sb="0" eb="2">
@@ -144,6 +145,13 @@
   </si>
   <si>
     <t>PokerGameSystem</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス図</t>
+    <rPh sb="3" eb="4">
+      <t>ズ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -151,7 +159,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +183,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -196,9 +211,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -254,6 +270,55 @@
         <a:xfrm>
           <a:off x="0" y="219075"/>
           <a:ext cx="4124324" cy="6128336"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>466415</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685799" y="819149"/>
+          <a:ext cx="37499616" cy="11706226"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -554,7 +619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="H3:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -643,4 +708,24 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="2:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>